--- a/data/trans_orig/P70A02_2007-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70A02_2007-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE6965BD-C10A-4491-ACF2-F5033A6401A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B282F42C-DFCF-42BB-B33D-CF8DC3CFF59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{26F97148-DDE8-4B5F-825C-140749DB7455}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7062C076-2479-49C6-A692-95767EB9667D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="141">
   <si>
     <t>Población según si le han impartido formación sobre prevención de riesgos laborales en su empresa en 2007 (Tasa respuesta: 39,47%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>68,26%</t>
   </si>
   <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
   </si>
   <si>
     <t>45,83%</t>
   </si>
   <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
   </si>
   <si>
     <t>58,39%</t>
   </si>
   <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>31,74%</t>
   </si>
   <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
   </si>
   <si>
     <t>54,17%</t>
   </si>
   <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
   </si>
   <si>
     <t>41,61%</t>
   </si>
   <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>68,29%</t>
   </si>
   <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
   </si>
   <si>
     <t>51,72%</t>
   </si>
   <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
   </si>
   <si>
     <t>62,19%</t>
   </si>
   <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
   </si>
   <si>
     <t>31,71%</t>
   </si>
   <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
   </si>
   <si>
     <t>48,28%</t>
   </si>
   <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
   </si>
   <si>
     <t>37,81%</t>
   </si>
   <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,55 @@
     <t>70,88%</t>
   </si>
   <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
   </si>
   <si>
     <t>52,39%</t>
   </si>
   <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
   </si>
   <si>
     <t>64,42%</t>
   </si>
   <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
   </si>
   <si>
     <t>29,12%</t>
   </si>
   <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
   </si>
   <si>
     <t>47,61%</t>
   </si>
   <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
   </si>
   <si>
     <t>35,58%</t>
   </si>
   <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,55 +251,55 @@
     <t>66,7%</t>
   </si>
   <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
   </si>
   <si>
     <t>49,2%</t>
   </si>
   <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
   </si>
   <si>
     <t>61,73%</t>
   </si>
   <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
   </si>
   <si>
     <t>33,3%</t>
   </si>
   <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
   </si>
   <si>
     <t>50,8%</t>
   </si>
   <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
   </si>
   <si>
     <t>38,27%</t>
   </si>
   <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,55 +308,55 @@
     <t>62,3%</t>
   </si>
   <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
   </si>
   <si>
     <t>58,18%</t>
   </si>
   <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
   </si>
   <si>
     <t>61,17%</t>
   </si>
   <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
   </si>
   <si>
     <t>37,7%</t>
   </si>
   <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
   </si>
   <si>
     <t>41,82%</t>
   </si>
   <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
   </si>
   <si>
     <t>38,83%</t>
   </si>
   <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -365,7 +365,7 @@
     <t>64,16%</t>
   </si>
   <si>
-    <t>17,9%</t>
+    <t>17,95%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -380,16 +380,16 @@
     <t>60,0%</t>
   </si>
   <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
   </si>
   <si>
     <t>35,84%</t>
   </si>
   <si>
-    <t>82,1%</t>
+    <t>82,05%</t>
   </si>
   <si>
     <t>51,37%</t>
@@ -398,58 +398,64 @@
     <t>40,0%</t>
   </si>
   <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
   </si>
   <si>
     <t>68,2%</t>
   </si>
   <si>
-    <t>70,25%</t>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
   </si>
   <si>
     <t>51,04%</t>
   </si>
   <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
   </si>
   <si>
     <t>62,25%</t>
   </si>
   <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
   </si>
   <si>
     <t>31,8%</t>
   </si>
   <si>
-    <t>29,75%</t>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
   </si>
   <si>
     <t>48,96%</t>
   </si>
   <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
   </si>
   <si>
     <t>37,75%</t>
   </si>
   <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -864,7 +870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D757162-C94B-4997-BAC4-D251452A58FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C256D7-BAC3-46F5-9599-9A3B20EFE0D4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1921,10 +1927,10 @@
         <v>122</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>461</v>
@@ -1933,13 +1939,13 @@
         <v>474594</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>1604</v>
@@ -1948,13 +1954,13 @@
         <v>1670879</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,13 +1975,13 @@
         <v>557821</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="H23" s="7">
         <v>430</v>
@@ -1984,13 +1990,13 @@
         <v>455282</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>966</v>
@@ -1999,13 +2005,13 @@
         <v>1013103</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2061,7 +2067,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70A02_2007-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70A02_2007-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B282F42C-DFCF-42BB-B33D-CF8DC3CFF59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4F9BD80-893B-412B-A8ED-742C2259A5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7062C076-2479-49C6-A692-95767EB9667D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CDCB0A34-3FD4-432E-A761-CC218CE258A2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>68,26%</t>
   </si>
   <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
   </si>
   <si>
     <t>45,83%</t>
   </si>
   <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
   </si>
   <si>
     <t>58,39%</t>
   </si>
   <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>31,74%</t>
   </si>
   <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
   </si>
   <si>
     <t>54,17%</t>
   </si>
   <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
   </si>
   <si>
     <t>41,61%</t>
   </si>
   <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>68,29%</t>
   </si>
   <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
   </si>
   <si>
     <t>51,72%</t>
   </si>
   <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
   </si>
   <si>
     <t>62,19%</t>
   </si>
   <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
   </si>
   <si>
     <t>31,71%</t>
   </si>
   <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
   </si>
   <si>
     <t>48,28%</t>
   </si>
   <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
   </si>
   <si>
     <t>37,81%</t>
   </si>
   <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,55 @@
     <t>70,88%</t>
   </si>
   <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
   </si>
   <si>
     <t>52,39%</t>
   </si>
   <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
   </si>
   <si>
     <t>64,42%</t>
   </si>
   <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
   </si>
   <si>
     <t>29,12%</t>
   </si>
   <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
   </si>
   <si>
     <t>47,61%</t>
   </si>
   <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
   </si>
   <si>
     <t>35,58%</t>
   </si>
   <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,55 +251,55 @@
     <t>66,7%</t>
   </si>
   <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
   </si>
   <si>
     <t>49,2%</t>
   </si>
   <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
   </si>
   <si>
     <t>61,73%</t>
   </si>
   <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
   </si>
   <si>
     <t>33,3%</t>
   </si>
   <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
   </si>
   <si>
     <t>50,8%</t>
   </si>
   <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
   </si>
   <si>
     <t>38,27%</t>
   </si>
   <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,55 +308,55 @@
     <t>62,3%</t>
   </si>
   <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
   </si>
   <si>
     <t>58,18%</t>
   </si>
   <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
   </si>
   <si>
     <t>61,17%</t>
   </si>
   <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
   </si>
   <si>
     <t>37,7%</t>
   </si>
   <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
   </si>
   <si>
     <t>41,82%</t>
   </si>
   <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
   </si>
   <si>
     <t>38,83%</t>
   </si>
   <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -365,7 +365,7 @@
     <t>64,16%</t>
   </si>
   <si>
-    <t>17,95%</t>
+    <t>17,9%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -380,16 +380,16 @@
     <t>60,0%</t>
   </si>
   <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
   </si>
   <si>
     <t>35,84%</t>
   </si>
   <si>
-    <t>82,05%</t>
+    <t>82,1%</t>
   </si>
   <si>
     <t>51,37%</t>
@@ -398,64 +398,64 @@
     <t>40,0%</t>
   </si>
   <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
   </si>
   <si>
     <t>68,2%</t>
   </si>
   <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
   </si>
   <si>
     <t>51,04%</t>
   </si>
   <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
   </si>
   <si>
     <t>62,25%</t>
   </si>
   <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
   </si>
   <si>
     <t>31,8%</t>
   </si>
   <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
   </si>
   <si>
     <t>48,96%</t>
   </si>
   <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
   </si>
   <si>
     <t>37,75%</t>
   </si>
   <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -870,7 +870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C256D7-BAC3-46F5-9599-9A3B20EFE0D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC46541B-0A07-4754-9EE2-F820A1998894}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70A02_2007-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70A02_2007-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4F9BD80-893B-412B-A8ED-742C2259A5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A011017-52B8-401D-8D1A-7183CE2DBF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CDCB0A34-3FD4-432E-A761-CC218CE258A2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{66C802CB-AEED-4A33-AB95-95A68B66296A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="139">
   <si>
     <t>Población según si le han impartido formación sobre prevención de riesgos laborales en su empresa en 2007 (Tasa respuesta: 39,47%)</t>
   </si>
@@ -68,34 +68,34 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>68,26%</t>
   </si>
   <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
   </si>
   <si>
     <t>45,83%</t>
   </si>
   <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
   </si>
   <si>
     <t>58,39%</t>
   </si>
   <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>31,74%</t>
   </si>
   <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
   </si>
   <si>
     <t>54,17%</t>
   </si>
   <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
   </si>
   <si>
     <t>41,61%</t>
   </si>
   <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>68,29%</t>
   </si>
   <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
   </si>
   <si>
     <t>51,72%</t>
   </si>
   <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
   </si>
   <si>
     <t>62,19%</t>
   </si>
   <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
   </si>
   <si>
     <t>31,71%</t>
   </si>
   <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
   </si>
   <si>
     <t>48,28%</t>
   </si>
   <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
   </si>
   <si>
     <t>37,81%</t>
   </si>
   <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,55 @@
     <t>70,88%</t>
   </si>
   <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
   </si>
   <si>
     <t>52,39%</t>
   </si>
   <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
   </si>
   <si>
     <t>64,42%</t>
   </si>
   <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
   </si>
   <si>
     <t>29,12%</t>
   </si>
   <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
   </si>
   <si>
     <t>47,61%</t>
   </si>
   <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
   </si>
   <si>
     <t>35,58%</t>
   </si>
   <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -260,19 +260,19 @@
     <t>49,2%</t>
   </si>
   <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
   </si>
   <si>
     <t>61,73%</t>
   </si>
   <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
   </si>
   <si>
     <t>33,3%</t>
@@ -287,19 +287,19 @@
     <t>50,8%</t>
   </si>
   <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
   </si>
   <si>
     <t>38,27%</t>
   </si>
   <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,55 +308,55 @@
     <t>62,3%</t>
   </si>
   <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
   </si>
   <si>
     <t>58,18%</t>
   </si>
   <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
   </si>
   <si>
     <t>61,17%</t>
   </si>
   <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
   </si>
   <si>
     <t>37,7%</t>
   </si>
   <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
   </si>
   <si>
     <t>41,82%</t>
   </si>
   <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
   </si>
   <si>
     <t>38,83%</t>
   </si>
   <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -380,10 +380,10 @@
     <t>60,0%</t>
   </si>
   <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
   </si>
   <si>
     <t>35,84%</t>
@@ -398,64 +398,58 @@
     <t>40,0%</t>
   </si>
   <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
   </si>
   <si>
     <t>68,2%</t>
   </si>
   <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
+    <t>70,25%</t>
   </si>
   <si>
     <t>51,04%</t>
   </si>
   <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
   </si>
   <si>
     <t>62,25%</t>
   </si>
   <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
   </si>
   <si>
     <t>31,8%</t>
   </si>
   <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
+    <t>29,75%</t>
   </si>
   <si>
     <t>48,96%</t>
   </si>
   <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
   </si>
   <si>
     <t>37,75%</t>
   </si>
   <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -870,7 +864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC46541B-0A07-4754-9EE2-F820A1998894}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A44DA49-412E-4E11-A315-CB58F824354A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1927,10 +1921,10 @@
         <v>122</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>461</v>
@@ -1939,13 +1933,13 @@
         <v>474594</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>1604</v>
@@ -1954,13 +1948,13 @@
         <v>1670879</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,13 +1969,13 @@
         <v>557821</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>132</v>
-      </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="H23" s="7">
         <v>430</v>
@@ -1990,13 +1984,13 @@
         <v>455282</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>966</v>
@@ -2005,13 +1999,13 @@
         <v>1013103</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2067,7 +2061,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70A02_2007-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70A02_2007-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A011017-52B8-401D-8D1A-7183CE2DBF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EBD3547-88DA-4360-A333-A981AE9080AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{66C802CB-AEED-4A33-AB95-95A68B66296A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3B353D18-5A5D-41C9-BB49-48FB6F599E43}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="137">
   <si>
     <t>Población según si le han impartido formación sobre prevención de riesgos laborales en su empresa en 2007 (Tasa respuesta: 39,47%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -131,7 +131,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>68,29%</t>
@@ -188,7 +188,7 @@
     <t>41,45%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>70,88%</t>
@@ -245,7 +245,7 @@
     <t>38,75%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>66,7%</t>
@@ -302,7 +302,7 @@
     <t>42,64%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>62,3%</t>
@@ -359,13 +359,13 @@
     <t>45,39%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -374,34 +374,28 @@
     <t>48,63%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
   </si>
   <si>
     <t>51,37%</t>
   </si>
   <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
   </si>
   <si>
     <t>68,2%</t>
@@ -864,8 +858,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A44DA49-412E-4E11-A315-CB58F824354A}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36341D82-B8F5-4D4B-8569-E4AC63F2FBFC}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1757,10 +1751,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>3232</v>
+        <v>1593</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -1781,25 +1775,25 @@
         <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>110</v>
       </c>
       <c r="M19" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>4129</v>
+        <v>2489</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1808,19 +1802,19 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>1806</v>
+        <v>975</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -1829,28 +1823,28 @@
         <v>947</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>110</v>
       </c>
       <c r="M20" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>2753</v>
+        <v>1922</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1859,10 +1853,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" s="7">
-        <v>5038</v>
+        <v>2568</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1889,10 +1883,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N21" s="7">
-        <v>6882</v>
+        <v>4411</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1906,55 +1900,53 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1143</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>1196285</v>
+        <v>1640</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="H22" s="7">
-        <v>461</v>
-      </c>
-      <c r="I22" s="7">
-        <v>474594</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="M22" s="7">
-        <v>1604</v>
+        <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>1670879</v>
+        <v>1640</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1963,49 +1955,47 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>536</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>557821</v>
+        <v>831</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="H23" s="7">
-        <v>430</v>
-      </c>
-      <c r="I23" s="7">
-        <v>455282</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="M23" s="7">
-        <v>966</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>1013103</v>
+        <v>831</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2014,63 +2004,217 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>3</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2471</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M24" s="7">
+        <v>3</v>
+      </c>
+      <c r="N24" s="7">
+        <v>2471</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1143</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1196285</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H25" s="7">
+        <v>461</v>
+      </c>
+      <c r="I25" s="7">
+        <v>474594</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1604</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1670879</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>536</v>
+      </c>
+      <c r="D26" s="7">
+        <v>557821</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" s="7">
+        <v>430</v>
+      </c>
+      <c r="I26" s="7">
+        <v>455282</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M26" s="7">
+        <v>966</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1013103</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1679</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>1754106</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>891</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>929876</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>2570</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>2683982</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>138</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
